--- a/data/trans_orig/CAL_SUEÑO_SATED-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CAL_SUEÑO_SATED-Edad-trans_orig.xlsx
@@ -521,7 +521,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Calidad del sueño</t>
+          <t>Calidad del sueño (tasa de respuesta: 95,49%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CAL_SUEÑO_SATED-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CAL_SUEÑO_SATED-Edad-trans_orig.xlsx
@@ -601,7 +601,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,57</t>
+          <t>7,33</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,62</t>
+          <t>7,56</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,59</t>
+          <t>7,45</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,16; 7,96</t>
+          <t>6,72; 7,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,23; 8,01</t>
+          <t>7,1; 8,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,33; 7,84</t>
+          <t>7,06; 7,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,93</t>
+          <t>7,84</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,81</t>
+          <t>7,75</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,87</t>
+          <t>7,79</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -719,7 +719,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,58; 8,24</t>
+          <t>7,39; 8,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,49; 8,12</t>
+          <t>7,26; 8,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,63; 8,09</t>
+          <t>7,5; 8,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,66</t>
+          <t>7,72</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,47</t>
+          <t>7,38</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,57</t>
+          <t>7,55</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,37; 7,92</t>
+          <t>7,42; 7,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,23; 7,72</t>
+          <t>7,03; 7,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,37; 7,76</t>
+          <t>7,33; 7,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,43</t>
+          <t>7,56</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,17</t>
+          <t>7,24</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,3</t>
+          <t>7,4</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,2; 7,68</t>
+          <t>7,31; 7,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,94; 7,4</t>
+          <t>7,0; 7,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,14; 7,46</t>
+          <t>7,23; 7,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,45</t>
+          <t>7,52</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,15</t>
+          <t>7,22</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7,29</t>
+          <t>7,37</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -959,7 +959,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,15; 7,68</t>
+          <t>7,27; 7,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,93; 7,37</t>
+          <t>6,96; 7,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,11; 7,47</t>
+          <t>7,21; 7,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7,53</t>
+          <t>7,46</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>7,01</t>
+          <t>6,92</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>7,26</t>
+          <t>7,17</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,26; 7,78</t>
+          <t>7,19; 7,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,74; 7,26</t>
+          <t>6,68; 7,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,07; 7,42</t>
+          <t>6,99; 7,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>7,32</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,68</t>
+          <t>6,6</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,85</t>
+          <t>6,88</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,77; 7,43</t>
+          <t>7,0; 7,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,44; 6,96</t>
+          <t>6,33; 6,84</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,64; 7,05</t>
+          <t>6,67; 7,07</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>7,49</t>
+          <t>7,55</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>7,15</t>
+          <t>7,19</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>7,31</t>
+          <t>7,37</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,37; 7,59</t>
+          <t>7,44; 7,68</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>7,04; 7,25</t>
+          <t>7,07; 7,3</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1219,7 +1219,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,23; 7,38</t>
+          <t>7,28; 7,45</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">

--- a/data/trans_orig/CAL_SUEÑO_SATED-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CAL_SUEÑO_SATED-Edad-trans_orig.xlsx
@@ -549,32 +549,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>8,77</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>7,33</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>8,77</t>
-        </is>
-      </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>8,59</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>7,56</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>8,59</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>8,68</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>7,45</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>8,68</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>8,52; 8,99</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>6,72; 7,79</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>8,52; 8,99</t>
-        </is>
-      </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>8,3; 8,84</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>7,1; 8,02</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>8,3; 8,84</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>8,48; 8,84</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>7,06; 7,79</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>8,48; 8,84</t>
         </is>
       </c>
     </row>
@@ -681,32 +681,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>8,49</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>7,84</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>8,49</t>
-        </is>
-      </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>8,26</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>7,75</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>8,26</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>8,36</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>7,79</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>8,36</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>8,22; 8,72</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>7,39; 8,22</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>8,22; 8,72</t>
-        </is>
-      </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>8,02; 8,49</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>7,26; 8,11</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>8,02; 8,49</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>8,19; 8,53</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>7,5; 8,08</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>8,19; 8,53</t>
         </is>
       </c>
     </row>
@@ -761,32 +761,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>8,31</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>7,72</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>8,31</t>
-        </is>
-      </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>8,37</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>7,38</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>8,37</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>8,34</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>7,55</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>8,34</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>8,09; 8,54</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
           <t>7,42; 7,99</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>8,09; 8,54</t>
-        </is>
-      </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>8,1; 8,57</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>7,03; 7,67</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>8,1; 8,57</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>8,16; 8,51</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>7,33; 7,77</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>8,16; 8,51</t>
         </is>
       </c>
     </row>
@@ -841,32 +841,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>8,43</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>7,56</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>8,43</t>
-        </is>
-      </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>8,02</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>7,24</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>8,02</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>8,23</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>7,4</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>8,23</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>8,21; 8,6</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
           <t>7,31; 7,79</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>8,21; 8,6</t>
-        </is>
-      </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>7,79; 8,24</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>7,0; 7,48</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>7,79; 8,24</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>8,09; 8,38</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>7,23; 7,58</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>8,09; 8,38</t>
         </is>
       </c>
     </row>
@@ -921,32 +921,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>8,43</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
           <t>7,52</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>8,43</t>
-        </is>
-      </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>7,57</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>7,22</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>7,57</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>7,98</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>7,37</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>7,98</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>8,18; 8,65</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
           <t>7,27; 7,76</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>8,18; 8,65</t>
-        </is>
-      </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>7,31; 7,81</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>6,96; 7,45</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>7,31; 7,81</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>7,8; 8,15</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>7,21; 7,55</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>7,8; 8,15</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1001,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>8,16</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
           <t>7,46</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>8,16</t>
-        </is>
-      </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>7,92</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>6,92</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>7,92</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>8,04</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>7,17</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>8,04</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>7,97; 8,35</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
           <t>7,19; 7,72</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>7,97; 8,35</t>
-        </is>
-      </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>7,7; 8,12</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>6,68; 7,2</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>7,7; 8,12</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>7,87; 8,17</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>6,99; 7,34</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>7,87; 8,17</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1081,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>7,95</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
           <t>7,32</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>7,95</t>
-        </is>
-      </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
+          <t>7,68</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>6,6</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>7,68</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>7,79</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>6,88</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>7,79</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1119,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>7,74; 8,17</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
           <t>7,0; 7,62</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>7,74; 8,17</t>
-        </is>
-      </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
+          <t>7,4; 7,89</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>6,33; 6,84</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>7,4; 7,89</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>7,62; 7,96</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>6,67; 7,07</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>7,62; 7,96</t>
         </is>
       </c>
     </row>
@@ -1161,32 +1161,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>8,37</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
           <t>7,55</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>8,37</t>
-        </is>
-      </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
+          <t>8,04</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>7,19</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>8,04</t>
-        </is>
-      </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
+          <t>8,2</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>7,37</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>8,2</t>
         </is>
       </c>
     </row>
@@ -1199,32 +1199,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>8,29; 8,46</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
           <t>7,44; 7,68</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>8,29; 8,46</t>
-        </is>
-      </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
+          <t>7,94; 8,13</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
           <t>7,07; 7,3</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>7,94; 8,13</t>
-        </is>
-      </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
+          <t>8,13; 8,26</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>7,28; 7,45</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>8,13; 8,26</t>
         </is>
       </c>
     </row>
